--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E81C4B-6426-4E98-AA40-ED531D867A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35780F-772A-41FA-ACF5-77AB5790E87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUALI" sheetId="3" r:id="rId1"/>
     <sheet name="QUANTI" sheetId="4" r:id="rId2"/>
-    <sheet name="FAT1_SI" sheetId="6" r:id="rId3"/>
-    <sheet name="FAT1_CI" sheetId="5" r:id="rId4"/>
-    <sheet name="FAT2_SI" sheetId="8" r:id="rId5"/>
-    <sheet name="FAT2_CI" sheetId="7" r:id="rId6"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId3"/>
+    <sheet name="FAT1_CI" sheetId="7" r:id="rId4"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId5"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId6"/>
     <sheet name="FAT3" sheetId="14" r:id="rId7"/>
     <sheet name="REG" sheetId="15" r:id="rId8"/>
     <sheet name="TOMATE" sheetId="16" r:id="rId9"/>
@@ -34172,1189 +34172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7.4439999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7.3419999999999987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>7.3599999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>7.3360000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>7.5299999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>7.5559999999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>7.4499999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>7.4700000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>7.1099999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>6.9329999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>7.2619999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>7.3630000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>6.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>11.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>12.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>12.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>12.526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>12.718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>12.616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>11.379999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>11.512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>11.530000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>11.763999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>9.2199999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>9.298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>9.1359999999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>9.6980000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>9.8179999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>10.112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>9.9059999999999988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>9.8640000000000008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>10.852</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>10.786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>10.719999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>11.36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>11.304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>11.440000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>11.364000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35885,11 +34707,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2996A0-981A-4A4B-B534-0AE0EA3EB13F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -36579,6 +35401,1184 @@
       </c>
       <c r="D49">
         <v>17.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6.9499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7.4439999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>7.3419999999999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7.3599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>7.3360000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>7.5299999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>7.5559999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>6.9329999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>7.2619999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>7.3630000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>6.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12.526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>12.718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>12.616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>11.379999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>11.512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>11.530000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>11.763999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>9.2199999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>9.298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>9.1359999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>9.6980000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>9.8179999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>10.112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>9.9059999999999988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>9.8640000000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10.852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>10.786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>10.719999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>11.304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>11.440000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>11.364000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35780F-772A-41FA-ACF5-77AB5790E87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF926D13-4557-4152-8ADA-256E3B820B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUALI" sheetId="3" r:id="rId1"/>
@@ -33225,8 +33225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33762,7 +33762,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -33822,7 +33822,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>6.99</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>7.03</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -33852,7 +33852,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>6.94</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -33867,7 +33867,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>6.81</v>
+        <v>7.1099999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -36001,7 +36001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF926D13-4557-4152-8ADA-256E3B820B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3072CF-FC79-4030-B369-10977E6D7CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33762,7 +33762,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>7.5</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -33777,7 +33777,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>7.53</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -33822,7 +33822,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>7.29</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>7.33</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -33852,7 +33852,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>7.24</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -33867,7 +33867,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>7.1099999999999994</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="42" spans="1:4">

--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3072CF-FC79-4030-B369-10977E6D7CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592B4A8-568A-4A39-918B-1762ADE74EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUALI" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="maize" sheetId="2" r:id="rId17"/>
     <sheet name="gg" sheetId="1" r:id="rId18"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FAT1_CI!$A$1:$D$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1023,469 +1026,472 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>8.234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.1229999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C12" s="2">
+        <v>10.202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>10.202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.9819999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12.692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="C13" s="2">
+        <v>7.234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
-        <v>7.234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11.234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="C14" s="2">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.1229999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>7.86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.1229999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.8230000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.1289999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C25" s="2">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.1229999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="C26" s="2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="2">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6.8230000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C27" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10.002000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
       </c>
       <c r="C28" s="2">
         <v>6.6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12.692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="2">
+        <v>11.234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="2">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="2">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.002000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C38" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="C39" s="2">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="2">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5.1289999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="C40" s="2">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="2">
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4</v>
       </c>
       <c r="C41" s="2">
         <v>9.9920000000000009</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C41">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -33225,948 +33231,906 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>4.3</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>7.2620000000000005</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>7.6</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D7" s="4">
+        <v>5.9560000000000004</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>5.9560000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.26</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.42</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3">
+        <v>150</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.86</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D12">
+        <v>6.98</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>7.54</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>7.7619999999999996</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>7.76</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>7.49</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>5.6</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>7.52</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <v>7.7200000000000006</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>7.18</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>5.2</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3">
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>7.55</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>8.02</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>5.2930000000000001</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B2+50</f>
+      <c r="D32">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7.26</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" ref="B7:B21" si="0">B3+50</f>
-        <v>50</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7.54</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3">
         <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.42</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.82</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.86</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>10.32</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11.23</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10.602</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11.32</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>6.98</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>6.93</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>6.76</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3">
-        <f>B22+50</f>
-        <v>50</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>7.54</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3">
-        <f t="shared" ref="B27:B41" si="1">B23+50</f>
-        <v>50</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>7.55</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>7.93</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>7.2</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>7.7619999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>8.2629999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
       </c>
       <c r="D34">
         <v>7.76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5.2930000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3">
+        <v>100</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="3">
+        <v>150</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10.602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="3">
-        <f t="shared" si="1"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3">
         <v>150</v>
       </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="D45">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="3">
-        <f t="shared" si="1"/>
+      <c r="C46" s="3">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>7.5630000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="3">
         <v>150</v>
       </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="D50">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>7.0600000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="3">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3">
+        <v>100</v>
+      </c>
+      <c r="D54" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3">
+        <v>150</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="3">
-        <f t="shared" si="1"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="3">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>8.2629999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3">
         <v>150</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D60">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="3">
-        <f t="shared" si="1"/>
+      <c r="C61" s="3">
         <v>200</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4</v>
-      </c>
-      <c r="D41">
+      <c r="D61">
         <v>7.31</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B42+50</f>
-        <v>50</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="3">
-        <f t="shared" ref="B47:B61" si="2">B43+50</f>
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>7.2620000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>7.5630000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>7.7200000000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>7.18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>7.0600000000000005</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:D61">
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="B2:B61"/>
+    <sortCondition ref="C2:C61"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -34175,534 +34139,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>11.406000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C2">
+      <c r="D8">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>8.1240000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>9.0269999999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>8.7149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>7.8030000000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>12.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
       <c r="D10">
         <v>9.748800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>10.518000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>8.1269999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>9.7523999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="D19">
         <v>10.8324</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>12.009600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>8.7149999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="D28">
         <v>10.458</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>9.3635999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>49</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>8.1269999999999989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>9.7523999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>8.675279999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>11.406000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>10.518000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>12.009600000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
       </c>
       <c r="D29">
         <v>11.1129</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
       <c r="D30">
-        <v>15.43</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D33">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>8.675279999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>7.8030000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33">
+      <c r="D36">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>12.83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
       <c r="D37">
-        <v>14.44</v>
+        <v>9.3635999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="C2:C37"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -34711,699 +34680,704 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2996A0-981A-4A4B-B534-0AE0EA3EB13F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>58</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>11.406000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>8.1240000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>9.0269999999999992</v>
+        <v>7.5179999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>58</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>143</v>
       </c>
       <c r="D4">
-        <v>8.7149999999999999</v>
+        <v>17.334</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>58</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>7.8030000000000008</v>
+        <v>8.1240000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>58</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>12.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>58</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>17.231999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>58</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="s">
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>58</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>13.687200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9.748800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>10.8324</v>
+        <v>9.0216000000000012</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>58</v>
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="C12" t="s">
+        <v>143</v>
       </c>
       <c r="D12">
-        <v>10.458</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>58</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>9.3635999999999999</v>
+        <v>9.748800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>59</v>
+      <c r="A14">
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>7.5179999999999998</v>
+        <v>10.518000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>59</v>
+      <c r="A15">
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
       <c r="D15">
         <v>8.1269999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>59</v>
+      <c r="A16">
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" t="s">
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>6.9119999999999999</v>
+        <v>17.244</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>59</v>
+      <c r="A17">
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="C17" t="s">
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>7.2294</v>
+        <v>9.0269999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>59</v>
+      <c r="A18">
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>59</v>
+      <c r="A19">
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>59</v>
       </c>
       <c r="D19">
         <v>6.3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>59</v>
+      <c r="A20">
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="C20" t="s">
+        <v>143</v>
       </c>
       <c r="D20">
-        <v>6.48</v>
+        <v>16.794</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>59</v>
+      <c r="A21">
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21">
-        <v>4</v>
+      <c r="C21" t="s">
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>7.5</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>59</v>
+      <c r="A22">
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>9.0216000000000012</v>
+        <v>12.621600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>59</v>
+      <c r="A23">
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="s">
+        <v>59</v>
       </c>
       <c r="D23">
         <v>9.7523999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>59</v>
+      <c r="A24">
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24">
-        <v>3</v>
+      <c r="C24" t="s">
+        <v>143</v>
       </c>
       <c r="D24">
-        <v>8.2944000000000013</v>
+        <v>16.824000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>59</v>
+      <c r="A25">
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="C25" t="s">
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>8.675279999999999</v>
+        <v>10.8324</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>60</v>
+      <c r="A26">
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>11.406000000000001</v>
+        <v>12.009600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>60</v>
+      <c r="A27">
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>10.518000000000001</v>
+        <v>6.9119999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>60</v>
+      <c r="A28">
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>3</v>
-      </c>
-      <c r="D28">
-        <v>12.009600000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="C29" t="s">
+        <v>143</v>
       </c>
       <c r="D29">
-        <v>11.1129</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>60</v>
+      <c r="A30">
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>7.2</v>
+        <v>8.7149999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>60</v>
+      <c r="A31">
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>60</v>
+      <c r="A32">
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>3</v>
-      </c>
-      <c r="D32">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="s">
+        <v>143</v>
       </c>
       <c r="D33">
-        <v>8.94</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>60</v>
+      <c r="A34">
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
       </c>
       <c r="D34">
-        <v>13.687200000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>60</v>
+      <c r="A35">
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>12.621600000000001</v>
+        <v>14.411520000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>60</v>
+      <c r="A36">
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <v>8.2944000000000013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>3</v>
-      </c>
-      <c r="D36">
-        <v>14.411520000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>17.544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>10.458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>4</v>
-      </c>
-      <c r="D37">
-        <v>13.335480000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>17.334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>143</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>17.244</v>
+        <v>11.1129</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>143</v>
+      <c r="A40">
+        <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40">
-        <v>3</v>
+      <c r="C40" t="s">
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>16.77</v>
+        <v>7.2294</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>143</v>
+      <c r="A41">
+        <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C41">
-        <v>3</v>
+      <c r="C41" t="s">
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>15.62</v>
+        <v>7.8030000000000008</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>143</v>
+      <c r="A42">
+        <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="C42" t="s">
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>17.231999999999999</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>143</v>
+      <c r="A43">
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>16.794</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>143</v>
+      <c r="A44">
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44">
-        <v>3</v>
+      <c r="C44" t="s">
+        <v>143</v>
       </c>
       <c r="D44">
-        <v>17.28</v>
+        <v>17.484000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>143</v>
+      <c r="A45">
+        <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>4</v>
-      </c>
-      <c r="D45">
-        <v>17.484000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>143</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="C46" t="s">
+        <v>60</v>
       </c>
       <c r="D46">
-        <v>17.13</v>
+        <v>13.335480000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>143</v>
+      <c r="A47">
+        <v>4</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>16.824000000000002</v>
+        <v>8.675279999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>143</v>
+      <c r="A48">
+        <v>4</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48">
-        <v>3</v>
+      <c r="C48" t="s">
+        <v>143</v>
       </c>
       <c r="D48">
-        <v>17.544</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>143</v>
+      <c r="A49">
+        <v>4</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C49">
-        <v>4</v>
+      <c r="C49" t="s">
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>17.28</v>
+        <v>9.3635999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="B2:B49"/>
+    <sortCondition ref="C2:C49"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -35413,586 +35387,591 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>7.4439999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D7">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>7.2619999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>7.3419999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>7.5299999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7.4439999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7.3419999999999987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>7.3599999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>7.3360000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>7.5299999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>7.5559999999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
+      <c r="C15">
         <v>75</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
       </c>
       <c r="D15">
         <v>7.4499999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
         <v>75</v>
       </c>
-      <c r="C16">
+      <c r="D20">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>6.9499999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>7.3599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>7.5559999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
         <v>7.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>7.4700000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>7.1099999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
+      <c r="D26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>6.9329999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B22">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="D27">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
+      <c r="C28">
         <v>25</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
       </c>
       <c r="D28">
         <v>7.23</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="D33">
+        <v>7.3360000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>6.9329999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
+      <c r="C39">
         <v>50</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>7.2619999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D39">
+        <v>7.3630000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>7.3630000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
+      <c r="C41">
         <v>100</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
       </c>
       <c r="D41">
         <v>6.61</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D41">
+    <sortCondition ref="A2:A41"/>
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="C2:C41"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -36001,587 +35980,590 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>11.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>12.526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>11.379999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D7">
+        <v>9.2199999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>9.6980000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>10.112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>10.852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>11.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>12.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>12.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
+      <c r="C15">
         <v>75</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>12.526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
       </c>
       <c r="D15">
         <v>12.718</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>11.512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>9.298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>9.9059999999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
         <v>75</v>
       </c>
-      <c r="C16">
+      <c r="D20">
+        <v>10.786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>11.304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
         <v>12.64</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
         <v>75</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>12.616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="D25">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B18">
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>11.379999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>11.512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
+      <c r="D26">
+        <v>11.530000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>11.530000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>11.763999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B22">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>9.2199999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="D27">
+        <v>9.1359999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>9.298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>9.1359999999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
+      <c r="C28">
         <v>25</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>9.6980000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
       </c>
       <c r="D28">
         <v>10.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>9.8640000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>10.719999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>11.440000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="D33">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>12.616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>11.763999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
         <v>9.8179999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
+      <c r="C39">
         <v>50</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>10.112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D39">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>9.9059999999999988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>9.8640000000000008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>10.852</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>10.786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>10.719999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
+      <c r="C41">
         <v>100</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>11.36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>11.304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>11.440000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
       </c>
       <c r="D41">
         <v>11.364000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D41">
+    <sortCondition ref="A2:A41"/>
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="C2:C41"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,32 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592B4A8-568A-4A39-918B-1762ADE74EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786EC8E1-7D90-42A9-BBF6-9CDA7BB32572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUALI" sheetId="3" r:id="rId1"/>
     <sheet name="QUANTI" sheetId="4" r:id="rId2"/>
     <sheet name="FAT1_SI" sheetId="8" r:id="rId3"/>
-    <sheet name="FAT1_CI" sheetId="7" r:id="rId4"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId5"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId6"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId7"/>
-    <sheet name="REG" sheetId="15" r:id="rId8"/>
-    <sheet name="TOMATE" sheetId="16" r:id="rId9"/>
-    <sheet name="EGGPLANT" sheetId="17" r:id="rId10"/>
-    <sheet name="PLATO" sheetId="18" r:id="rId11"/>
-    <sheet name="PROPOR" sheetId="13" r:id="rId12"/>
-    <sheet name="COUNT" sheetId="12" r:id="rId13"/>
-    <sheet name="SOJA" sheetId="11" r:id="rId14"/>
-    <sheet name="COVAR" sheetId="10" r:id="rId15"/>
-    <sheet name="SCENARIO" sheetId="9" r:id="rId16"/>
-    <sheet name="maize" sheetId="2" r:id="rId17"/>
-    <sheet name="gg" sheetId="1" r:id="rId18"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId4"/>
+    <sheet name="FAT1_CI_WRONG" sheetId="7" r:id="rId5"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId6"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId7"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId8"/>
+    <sheet name="REG" sheetId="15" r:id="rId9"/>
+    <sheet name="TOMATE" sheetId="16" r:id="rId10"/>
+    <sheet name="EGGPLANT" sheetId="17" r:id="rId11"/>
+    <sheet name="PLATO" sheetId="18" r:id="rId12"/>
+    <sheet name="PROPOR" sheetId="13" r:id="rId13"/>
+    <sheet name="COUNT" sheetId="12" r:id="rId14"/>
+    <sheet name="SOJA" sheetId="11" r:id="rId15"/>
+    <sheet name="COVAR" sheetId="10" r:id="rId16"/>
+    <sheet name="SCENARIO" sheetId="9" r:id="rId17"/>
+    <sheet name="maize" sheetId="2" r:id="rId18"/>
+    <sheet name="gg" sheetId="1" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FAT1_CI!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FAT1_CI_WRONG!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="173">
   <si>
     <t>AMB</t>
   </si>
@@ -1497,6 +1499,404 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69BC239-7533-4791-82CC-814BA68FC3B4}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>5.7142499999999998</v>
+      </c>
+      <c r="D2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>125.05249999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.995</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>318.42116820000001</v>
+      </c>
+      <c r="D4">
+        <v>3.067166667</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>1205.525165</v>
+      </c>
+      <c r="D5">
+        <v>8.1564632350000004</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>2017.536983</v>
+      </c>
+      <c r="D6">
+        <v>12.697227120000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>2428.9783240000002</v>
+      </c>
+      <c r="D7">
+        <v>15.27149796</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>2720.3044169999998</v>
+      </c>
+      <c r="D8">
+        <v>17.09541462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>2894.6335060000001</v>
+      </c>
+      <c r="D9">
+        <v>18.417914620000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>3030.1783690000002</v>
+      </c>
+      <c r="D10">
+        <v>19.670831289999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>16.38</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>52.19</v>
+      </c>
+      <c r="D12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>311.2</v>
+      </c>
+      <c r="D13">
+        <v>3.18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>803.64</v>
+      </c>
+      <c r="D14">
+        <v>7.58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>1632.09</v>
+      </c>
+      <c r="D15">
+        <v>14.08</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>2520.94</v>
+      </c>
+      <c r="D16">
+        <v>21.33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>3164.08</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>3892.49</v>
+      </c>
+      <c r="D18">
+        <v>34.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>4135.29</v>
+      </c>
+      <c r="D19">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33F0E4E-DED9-4907-859F-5A619F1384BD}">
   <dimension ref="A1:D73"/>
   <sheetViews>
@@ -2533,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB0F6F-3836-49B9-A1CF-94FADF9AEF2F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2808,7 +3208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78BA1E-69AE-4E96-8680-67928FE5C14C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2968,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55CEFED-EAAD-4F31-B016-852321605388}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3129,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E1278C-D960-4479-A53B-2A54D484EA76}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
@@ -4360,7 +4760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F555D9-7099-4676-A421-64766EECA5CD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -4732,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31918F4C-1E2A-41A5-91D3-2FB9EA0BEB0C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -5016,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <dimension ref="A1:J781"/>
   <sheetViews>
@@ -30792,7 +31192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
@@ -34677,11 +35077,712 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>11.406000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>7.5179999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>17.334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>17.231999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>13.687200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>9.0216000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>9.748800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>10.518000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>8.1269999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16">
+        <v>17.244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20">
+        <v>16.794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>12.621600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>9.7523999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24">
+        <v>16.824000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>10.8324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>12.009600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>6.9119999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>8.7149999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>14.411520000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>8.2944000000000013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36">
+        <v>17.544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>10.458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>11.1129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>7.2294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>7.8030000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44">
+        <v>17.484000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>13.335480000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>8.675279999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>9.3635999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2996A0-981A-4A4B-B534-0AE0EA3EB13F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35382,7 +36483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -35976,11 +37077,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -36568,7 +37669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <dimension ref="A1:D81"/>
   <sheetViews>
@@ -37718,7 +38819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F7457F-DEA4-422B-AAC0-9CF501439B9A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -37931,402 +39032,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69BC239-7533-4791-82CC-814BA68FC3B4}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2">
-        <v>72</v>
-      </c>
-      <c r="C2">
-        <v>5.7142499999999998</v>
-      </c>
-      <c r="D2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>125.05249999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.995</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>318.42116820000001</v>
-      </c>
-      <c r="D4">
-        <v>3.067166667</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>1205.525165</v>
-      </c>
-      <c r="D5">
-        <v>8.1564632350000004</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6">
-        <v>96</v>
-      </c>
-      <c r="C6">
-        <v>2017.536983</v>
-      </c>
-      <c r="D6">
-        <v>12.697227120000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7">
-        <v>102</v>
-      </c>
-      <c r="C7">
-        <v>2428.9783240000002</v>
-      </c>
-      <c r="D7">
-        <v>15.27149796</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8">
-        <v>108</v>
-      </c>
-      <c r="C8">
-        <v>2720.3044169999998</v>
-      </c>
-      <c r="D8">
-        <v>17.09541462</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9">
-        <v>114</v>
-      </c>
-      <c r="C9">
-        <v>2894.6335060000001</v>
-      </c>
-      <c r="D9">
-        <v>18.417914620000001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10">
-        <v>120</v>
-      </c>
-      <c r="C10">
-        <v>3030.1783690000002</v>
-      </c>
-      <c r="D10">
-        <v>19.670831289999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>16.38</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12">
-        <v>78</v>
-      </c>
-      <c r="C12">
-        <v>52.19</v>
-      </c>
-      <c r="D12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>311.2</v>
-      </c>
-      <c r="D13">
-        <v>3.18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <v>803.64</v>
-      </c>
-      <c r="D14">
-        <v>7.58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15">
-        <v>96</v>
-      </c>
-      <c r="C15">
-        <v>1632.09</v>
-      </c>
-      <c r="D15">
-        <v>14.08</v>
-      </c>
-      <c r="E15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16">
-        <v>102</v>
-      </c>
-      <c r="C16">
-        <v>2520.94</v>
-      </c>
-      <c r="D16">
-        <v>21.33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17">
-        <v>108</v>
-      </c>
-      <c r="C17">
-        <v>3164.08</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18">
-        <v>114</v>
-      </c>
-      <c r="C18">
-        <v>3892.49</v>
-      </c>
-      <c r="D18">
-        <v>34.25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>4135.29</v>
-      </c>
-      <c r="D19">
-        <v>36.880000000000003</v>
-      </c>
-      <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786EC8E1-7D90-42A9-BBF6-9CDA7BB32572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6489B1-D73B-44B8-88FF-C6AE45938CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="934" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUALI" sheetId="3" r:id="rId1"/>
@@ -33631,8 +33631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34540,7 +34540,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35080,7 +35080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -35781,8 +35781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2996A0-981A-4A4B-B534-0AE0EA3EB13F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36488,7 +36488,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37081,7 +37081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -37674,7 +37676,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/data_R.xlsx
+++ b/data/data_R.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF686025-DF02-47FE-8C88-998842B376D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB7C73-D94C-4A19-AB44-F32AE2390033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="934" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="934" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -14,28 +14,29 @@
     <sheet name="EXERCICIO_10" sheetId="21" r:id="rId4"/>
     <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId5"/>
     <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId6"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId7"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId8"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId9"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId10"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId11"/>
-    <sheet name="maize" sheetId="2" r:id="rId12"/>
-    <sheet name="FAT1_CI_WRONG" sheetId="7" r:id="rId13"/>
-    <sheet name="REG" sheetId="15" r:id="rId14"/>
-    <sheet name="TOMATE" sheetId="16" r:id="rId15"/>
-    <sheet name="EGGPLANT" sheetId="17" r:id="rId16"/>
-    <sheet name="PLATO" sheetId="18" r:id="rId17"/>
-    <sheet name="PROPOR" sheetId="13" r:id="rId18"/>
-    <sheet name="COUNT" sheetId="12" r:id="rId19"/>
-    <sheet name="SOJA" sheetId="11" r:id="rId20"/>
-    <sheet name="COVAR" sheetId="10" r:id="rId21"/>
-    <sheet name="SCENARIO" sheetId="9" r:id="rId22"/>
-    <sheet name="gg" sheetId="1" r:id="rId23"/>
+    <sheet name="QUANTI" sheetId="24" r:id="rId7"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId8"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId9"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId10"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId11"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId12"/>
+    <sheet name="maize" sheetId="2" r:id="rId13"/>
+    <sheet name="FAT1_CI_WRONG" sheetId="7" r:id="rId14"/>
+    <sheet name="REG" sheetId="15" r:id="rId15"/>
+    <sheet name="TOMATE" sheetId="16" r:id="rId16"/>
+    <sheet name="EGGPLANT" sheetId="17" r:id="rId17"/>
+    <sheet name="PLATO" sheetId="18" r:id="rId18"/>
+    <sheet name="PROPOR" sheetId="13" r:id="rId19"/>
+    <sheet name="COUNT" sheetId="12" r:id="rId20"/>
+    <sheet name="SOJA" sheetId="11" r:id="rId21"/>
+    <sheet name="COVAR" sheetId="10" r:id="rId22"/>
+    <sheet name="SCENARIO" sheetId="9" r:id="rId23"/>
+    <sheet name="gg" sheetId="1" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">FAT1_CI!$A$1:$D$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">FAT1_CI_WRONG!$A$1:$D$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">FAT1_CI!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">FAT1_CI_WRONG!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="201">
   <si>
     <t>AMB</t>
   </si>
@@ -642,6 +643,15 @@
   <si>
     <t>JOAO R.</t>
   </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>QUADRÁTICA</t>
+  </si>
+  <si>
+    <t>LINEAR</t>
+  </si>
 </sst>
 </file>
 
@@ -1343,6 +1353,599 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.9499999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>7.4439999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>7.3419999999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>7.3599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>7.3360000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>7.2619999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>7.5299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="9">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>7.5559999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>7.3630000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="9">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="9">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="9">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="9">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="9">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="9">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="9">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="9">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="9">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="9">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>6.9329999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="9">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>6.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -1937,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <dimension ref="A1:D81"/>
   <sheetViews>
@@ -3087,11 +3690,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <dimension ref="A1:J781"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -28863,7 +29466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2996A0-981A-4A4B-B534-0AE0EA3EB13F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -29569,7 +30172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F7457F-DEA4-422B-AAC0-9CF501439B9A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -29784,7 +30387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69BC239-7533-4791-82CC-814BA68FC3B4}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -30182,7 +30785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33F0E4E-DED9-4907-859F-5A619F1384BD}">
   <dimension ref="A1:D73"/>
   <sheetViews>
@@ -31219,7 +31822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB0F6F-3836-49B9-A1CF-94FADF9AEF2F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -31494,7 +32097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE78BA1E-69AE-4E96-8680-67928FE5C14C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -31647,167 +32250,6 @@
       </c>
       <c r="D10" t="s">
         <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55CEFED-EAAD-4F31-B016-852321605388}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -32291,6 +32733,167 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55CEFED-EAAD-4F31-B016-852321605388}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E1278C-D960-4479-A53B-2A54D484EA76}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
@@ -33521,7 +34124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F555D9-7099-4676-A421-64766EECA5CD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -33893,7 +34496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31918F4C-1E2A-41A5-91D3-2FB9EA0BEB0C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -34177,7 +34780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
@@ -37474,8 +38077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -37727,8 +38330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -37980,6 +38583,604 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF49EFF0-6705-4925-8981-335333F1F567}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6.76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7.54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7.55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7.93</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7.2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7.7619999999999996</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>8.02</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>8.16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>8.2629999999999999</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>7.76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7.69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7.9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>7.89</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7.49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7.53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>7.44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7.31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.7639999999999993</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.8420000000000005</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8.86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.5559999999999992</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9.843</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10.006</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10.618</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10.792</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -38520,7 +39721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -39219,597 +40420,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>7.4439999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>7.3419999999999987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="9">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="9">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>7.3599999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="9">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="9">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>7.3360000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="9">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>7.2619999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="9">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>7.5299999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="9">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>7.5559999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="9">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="9">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>7.3630000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="9">
-        <v>75</v>
-      </c>
-      <c r="D26">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="9">
-        <v>75</v>
-      </c>
-      <c r="D27">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="9">
-        <v>75</v>
-      </c>
-      <c r="D28">
-        <v>7.4499999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="9">
-        <v>75</v>
-      </c>
-      <c r="D29">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="9">
-        <v>75</v>
-      </c>
-      <c r="D30">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="9">
-        <v>75</v>
-      </c>
-      <c r="D31">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="9">
-        <v>75</v>
-      </c>
-      <c r="D32">
-        <v>7.4700000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="9">
-        <v>75</v>
-      </c>
-      <c r="D33">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="9">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="9">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="9">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>7.1099999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="9">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="9">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="9">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="9">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>6.9329999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="9">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>6.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="C2"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>